--- a/2020 여지정보.xlsx
+++ b/2020 여지정보.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\R\GGTMS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1513">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5076,6 +5076,14 @@
   </si>
   <si>
     <t>8번 채취안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뭔가 바꾸긴 했는데 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git은 어떻게 알아볼까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18103,53 +18111,6 @@
     <sortCondition ref="F15:F193"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="H297:H305"/>
-    <mergeCell ref="H207:H215"/>
-    <mergeCell ref="H216:H224"/>
-    <mergeCell ref="H225:H233"/>
-    <mergeCell ref="H194:H202"/>
-    <mergeCell ref="H261:H269"/>
-    <mergeCell ref="H270:H278"/>
-    <mergeCell ref="H252:H260"/>
-    <mergeCell ref="H243:H251"/>
-    <mergeCell ref="H234:H242"/>
-    <mergeCell ref="H279:H287"/>
-    <mergeCell ref="H288:H296"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H105:H113"/>
-    <mergeCell ref="H114:H121"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="H69:H77"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="H24:H32"/>
-    <mergeCell ref="H51:H59"/>
-    <mergeCell ref="H42:H50"/>
-    <mergeCell ref="H33:H41"/>
-    <mergeCell ref="H136:H144"/>
-    <mergeCell ref="H127:H135"/>
-    <mergeCell ref="H96:H104"/>
-    <mergeCell ref="H87:H95"/>
-    <mergeCell ref="H78:H86"/>
-    <mergeCell ref="H145:H153"/>
-    <mergeCell ref="H154:H163"/>
-    <mergeCell ref="H167:H175"/>
-    <mergeCell ref="H176:H184"/>
-    <mergeCell ref="H185:H193"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="H558:H566"/>
-    <mergeCell ref="H549:H557"/>
-    <mergeCell ref="H540:H548"/>
-    <mergeCell ref="H306:H314"/>
-    <mergeCell ref="H351:H359"/>
-    <mergeCell ref="H342:H350"/>
-    <mergeCell ref="H333:H341"/>
-    <mergeCell ref="H315:H323"/>
-    <mergeCell ref="H360:H368"/>
-    <mergeCell ref="H369:H377"/>
-    <mergeCell ref="H378:H386"/>
-    <mergeCell ref="H387:H395"/>
-    <mergeCell ref="H396:H404"/>
     <mergeCell ref="H567:H575"/>
     <mergeCell ref="H576:H584"/>
     <mergeCell ref="H441:H449"/>
@@ -18166,6 +18127,53 @@
     <mergeCell ref="H450:H458"/>
     <mergeCell ref="H486:H494"/>
     <mergeCell ref="H477:H485"/>
+    <mergeCell ref="H558:H566"/>
+    <mergeCell ref="H549:H557"/>
+    <mergeCell ref="H540:H548"/>
+    <mergeCell ref="H306:H314"/>
+    <mergeCell ref="H351:H359"/>
+    <mergeCell ref="H342:H350"/>
+    <mergeCell ref="H333:H341"/>
+    <mergeCell ref="H315:H323"/>
+    <mergeCell ref="H360:H368"/>
+    <mergeCell ref="H369:H377"/>
+    <mergeCell ref="H378:H386"/>
+    <mergeCell ref="H387:H395"/>
+    <mergeCell ref="H396:H404"/>
+    <mergeCell ref="H145:H153"/>
+    <mergeCell ref="H154:H163"/>
+    <mergeCell ref="H167:H175"/>
+    <mergeCell ref="H176:H184"/>
+    <mergeCell ref="H185:H193"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="H136:H144"/>
+    <mergeCell ref="H127:H135"/>
+    <mergeCell ref="H96:H104"/>
+    <mergeCell ref="H87:H95"/>
+    <mergeCell ref="H78:H86"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H105:H113"/>
+    <mergeCell ref="H114:H121"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="H69:H77"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="H51:H59"/>
+    <mergeCell ref="H42:H50"/>
+    <mergeCell ref="H33:H41"/>
+    <mergeCell ref="H297:H305"/>
+    <mergeCell ref="H207:H215"/>
+    <mergeCell ref="H216:H224"/>
+    <mergeCell ref="H225:H233"/>
+    <mergeCell ref="H194:H202"/>
+    <mergeCell ref="H261:H269"/>
+    <mergeCell ref="H270:H278"/>
+    <mergeCell ref="H252:H260"/>
+    <mergeCell ref="H243:H251"/>
+    <mergeCell ref="H234:H242"/>
+    <mergeCell ref="H279:H287"/>
+    <mergeCell ref="H288:H296"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22828,12 +22836,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23567,6 +23575,16 @@
       </c>
       <c r="E62" t="s">
         <v>1510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>1512</v>
       </c>
     </row>
   </sheetData>

--- a/2020 여지정보.xlsx
+++ b/2020 여지정보.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1514">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5084,6 +5084,10 @@
   </si>
   <si>
     <t>git은 어떻게 알아볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 수정이 안되는듯?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18111,6 +18115,53 @@
     <sortCondition ref="F15:F193"/>
   </sortState>
   <mergeCells count="63">
+    <mergeCell ref="H297:H305"/>
+    <mergeCell ref="H207:H215"/>
+    <mergeCell ref="H216:H224"/>
+    <mergeCell ref="H225:H233"/>
+    <mergeCell ref="H194:H202"/>
+    <mergeCell ref="H261:H269"/>
+    <mergeCell ref="H270:H278"/>
+    <mergeCell ref="H252:H260"/>
+    <mergeCell ref="H243:H251"/>
+    <mergeCell ref="H234:H242"/>
+    <mergeCell ref="H279:H287"/>
+    <mergeCell ref="H288:H296"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H105:H113"/>
+    <mergeCell ref="H114:H121"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="H69:H77"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="H51:H59"/>
+    <mergeCell ref="H42:H50"/>
+    <mergeCell ref="H33:H41"/>
+    <mergeCell ref="H136:H144"/>
+    <mergeCell ref="H127:H135"/>
+    <mergeCell ref="H96:H104"/>
+    <mergeCell ref="H87:H95"/>
+    <mergeCell ref="H78:H86"/>
+    <mergeCell ref="H145:H153"/>
+    <mergeCell ref="H154:H163"/>
+    <mergeCell ref="H167:H175"/>
+    <mergeCell ref="H176:H184"/>
+    <mergeCell ref="H185:H193"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="H558:H566"/>
+    <mergeCell ref="H549:H557"/>
+    <mergeCell ref="H540:H548"/>
+    <mergeCell ref="H306:H314"/>
+    <mergeCell ref="H351:H359"/>
+    <mergeCell ref="H342:H350"/>
+    <mergeCell ref="H333:H341"/>
+    <mergeCell ref="H315:H323"/>
+    <mergeCell ref="H360:H368"/>
+    <mergeCell ref="H369:H377"/>
+    <mergeCell ref="H378:H386"/>
+    <mergeCell ref="H387:H395"/>
+    <mergeCell ref="H396:H404"/>
     <mergeCell ref="H567:H575"/>
     <mergeCell ref="H576:H584"/>
     <mergeCell ref="H441:H449"/>
@@ -18127,53 +18178,6 @@
     <mergeCell ref="H450:H458"/>
     <mergeCell ref="H486:H494"/>
     <mergeCell ref="H477:H485"/>
-    <mergeCell ref="H558:H566"/>
-    <mergeCell ref="H549:H557"/>
-    <mergeCell ref="H540:H548"/>
-    <mergeCell ref="H306:H314"/>
-    <mergeCell ref="H351:H359"/>
-    <mergeCell ref="H342:H350"/>
-    <mergeCell ref="H333:H341"/>
-    <mergeCell ref="H315:H323"/>
-    <mergeCell ref="H360:H368"/>
-    <mergeCell ref="H369:H377"/>
-    <mergeCell ref="H378:H386"/>
-    <mergeCell ref="H387:H395"/>
-    <mergeCell ref="H396:H404"/>
-    <mergeCell ref="H145:H153"/>
-    <mergeCell ref="H154:H163"/>
-    <mergeCell ref="H167:H175"/>
-    <mergeCell ref="H176:H184"/>
-    <mergeCell ref="H185:H193"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="H136:H144"/>
-    <mergeCell ref="H127:H135"/>
-    <mergeCell ref="H96:H104"/>
-    <mergeCell ref="H87:H95"/>
-    <mergeCell ref="H78:H86"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H105:H113"/>
-    <mergeCell ref="H114:H121"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="H69:H77"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="H24:H32"/>
-    <mergeCell ref="H51:H59"/>
-    <mergeCell ref="H42:H50"/>
-    <mergeCell ref="H33:H41"/>
-    <mergeCell ref="H297:H305"/>
-    <mergeCell ref="H207:H215"/>
-    <mergeCell ref="H216:H224"/>
-    <mergeCell ref="H225:H233"/>
-    <mergeCell ref="H194:H202"/>
-    <mergeCell ref="H261:H269"/>
-    <mergeCell ref="H270:H278"/>
-    <mergeCell ref="H252:H260"/>
-    <mergeCell ref="H243:H251"/>
-    <mergeCell ref="H234:H242"/>
-    <mergeCell ref="H279:H287"/>
-    <mergeCell ref="H288:H296"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22836,12 +22840,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23585,6 +23589,11 @@
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>1512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
